--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -100,15 +100,15 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -121,10 +121,10 @@
     <t>dear</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
   </si>
   <si>
     <t>hope</t>
@@ -1222,25 +1222,25 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6695652173913044</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L16">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1248,25 +1248,25 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6534653465346535</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1274,25 +1274,25 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1404,25 +1404,25 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5365853658536586</v>
+        <v>0.52</v>
       </c>
       <c r="L23">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1430,25 +1430,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.52</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="N24">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="10:17">
